--- a/ArrayFromPycharm.xlsx
+++ b/ArrayFromPycharm.xlsx
@@ -406,22 +406,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -432,7 +432,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>1</v>
